--- a/regoutput_org.xlsx
+++ b/regoutput_org.xlsx
@@ -1,722 +1,715 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/emni15_student_aau_dk/Documents/10. SEMESTER (SPECIALE)/Speciale-oecon/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E9821890782E5348B752128372159C88CB1C4B4F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D5D71FC-71C4-9942-BBC4-0B6474FD9700}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23580" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="regoutput_org" sheetId="1" r:id="rId1"/>
+    <sheet name="regoutput_org" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="230">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>C1_Estimate</t>
-  </si>
-  <si>
-    <t>C1_Pr(&gt;|t|)</t>
-  </si>
-  <si>
-    <t>C1_siglvl</t>
-  </si>
-  <si>
-    <t>C2_Estimate</t>
-  </si>
-  <si>
-    <t>C2_Pr(&gt;|t|)</t>
-  </si>
-  <si>
-    <t>C2_siglvl</t>
-  </si>
-  <si>
-    <t>C3_Estimate</t>
-  </si>
-  <si>
-    <t>C3_Pr(&gt;|t|)</t>
-  </si>
-  <si>
-    <t>C3_siglvl</t>
-  </si>
-  <si>
-    <t>C4_Estimate</t>
-  </si>
-  <si>
-    <t>C4_Pr(&gt;|t|)</t>
-  </si>
-  <si>
-    <t>C4_siglvl</t>
-  </si>
-  <si>
-    <t>C5_Estimate</t>
-  </si>
-  <si>
-    <t>C5_Pr(&gt;|t|)</t>
-  </si>
-  <si>
-    <t>C5_siglvl</t>
-  </si>
-  <si>
-    <t>(Intercept)</t>
-  </si>
-  <si>
-    <t>1.52287836466152</t>
-  </si>
-  <si>
-    <t>0.00000000000103874697497782</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>1.70819269956804</t>
-  </si>
-  <si>
-    <t>0.000000000000000234865027424355</t>
-  </si>
-  <si>
-    <t>2.01576076104351</t>
-  </si>
-  <si>
-    <t>0.000000000000000000000427914475584755</t>
-  </si>
-  <si>
-    <t>1.93084368499797</t>
-  </si>
-  <si>
-    <t>0.00000000000000000305466048978713</t>
-  </si>
-  <si>
-    <t>1.91912787490225</t>
-  </si>
-  <si>
-    <t>0.00000000000000000139205540985247</t>
-  </si>
-  <si>
-    <t>factor(bra10grp_code)3</t>
-  </si>
-  <si>
-    <t>0.134265241973129</t>
-  </si>
-  <si>
-    <t>0.52172341851508</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C1_Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1_Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1_siglvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2_Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2_Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2_siglvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3_Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3_Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3_siglvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4_Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4_Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4_siglvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5_Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5_Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5_siglvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52287836466152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000103874697497782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70819269956804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000234865027424355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01576076104351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000427914475584755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93084368499797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000000305466048978713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91912787490225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000000000000000139205540985247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(bra10grp_code)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134265241973129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52172341851508</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>0.22578268133094</t>
-  </si>
-  <si>
-    <t>0.278542579148772</t>
-  </si>
-  <si>
-    <t>0.169200894298544</t>
-  </si>
-  <si>
-    <t>0.381246037711668</t>
-  </si>
-  <si>
-    <t>0.162647210292317</t>
-  </si>
-  <si>
-    <t>0.426008142686524</t>
-  </si>
-  <si>
-    <t>0.107749256969949</t>
-  </si>
-  <si>
-    <t>0.596111624466451</t>
-  </si>
-  <si>
-    <t>factor(bra10grp_code)4</t>
-  </si>
-  <si>
-    <t>0.133528006599575</t>
-  </si>
-  <si>
-    <t>0.28267434152179</t>
-  </si>
-  <si>
-    <t>0.180360264049997</t>
-  </si>
-  <si>
-    <t>0.144050627995355</t>
-  </si>
-  <si>
-    <t>0.0154105182010544</t>
-  </si>
-  <si>
-    <t>0.886722370392206</t>
-  </si>
-  <si>
-    <t>0.0762474523198863</t>
-  </si>
-  <si>
-    <t>0.546444314593936</t>
-  </si>
-  <si>
-    <t>0.0982284012849439</t>
-  </si>
-  <si>
-    <t>0.377632443888321</t>
-  </si>
-  <si>
-    <t>factor(bra10grp_code)5</t>
-  </si>
-  <si>
-    <t>0.375040668997675</t>
-  </si>
-  <si>
-    <t>0.0253555572148516</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>0.295148946983746</t>
-  </si>
-  <si>
-    <t>0.104681232761171</t>
-  </si>
-  <si>
-    <t>0.148789946949848</t>
-  </si>
-  <si>
-    <t>0.300046334565203</t>
-  </si>
-  <si>
-    <t>0.206814429305422</t>
-  </si>
-  <si>
-    <t>0.257401691459126</t>
-  </si>
-  <si>
-    <t>0.380975587972693</t>
-  </si>
-  <si>
-    <t>0.0235430492927727</t>
-  </si>
-  <si>
-    <t>factor(bra10grp_code)6</t>
-  </si>
-  <si>
-    <t>0.00623238380346419</t>
-  </si>
-  <si>
-    <t>0.970135399456077</t>
-  </si>
-  <si>
-    <t>0.113349816512245</t>
-  </si>
-  <si>
-    <t>0.480806554105416</t>
-  </si>
-  <si>
-    <t>-0.165947669389493</t>
-  </si>
-  <si>
-    <t>0.282483146511303</t>
-  </si>
-  <si>
-    <t>0.128337422742773</t>
-  </si>
-  <si>
-    <t>0.448114316658155</t>
-  </si>
-  <si>
-    <t>0.0338211050395404</t>
-  </si>
-  <si>
-    <t>0.827536404650078</t>
-  </si>
-  <si>
-    <t>factor(bra10grp_code)7</t>
-  </si>
-  <si>
-    <t>-0.443008110865561</t>
-  </si>
-  <si>
-    <t>0.335843372314757</t>
-  </si>
-  <si>
-    <t>-0.847866903807099</t>
-  </si>
-  <si>
-    <t>0.0581648529903876</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>-0.660507376290556</t>
-  </si>
-  <si>
-    <t>0.0580704305391487</t>
-  </si>
-  <si>
-    <t>-0.389747718411906</t>
-  </si>
-  <si>
-    <t>0.3575536121771</t>
-  </si>
-  <si>
-    <t>0.0505003659282222</t>
-  </si>
-  <si>
-    <t>0.875128247015161</t>
-  </si>
-  <si>
-    <t>factor(bra10grp_code)8</t>
-  </si>
-  <si>
-    <t>0.0775855552785682</t>
-  </si>
-  <si>
-    <t>0.591836702901456</t>
-  </si>
-  <si>
-    <t>0.0497424035309968</t>
-  </si>
-  <si>
-    <t>0.735638730011061</t>
-  </si>
-  <si>
-    <t>-0.0193746816242611</t>
-  </si>
-  <si>
-    <t>0.879447875821014</t>
-  </si>
-  <si>
-    <t>-0.0323553148538098</t>
-  </si>
-  <si>
-    <t>0.838395226337509</t>
-  </si>
-  <si>
-    <t>0.0858901999083302</t>
-  </si>
-  <si>
-    <t>0.513463187196791</t>
-  </si>
-  <si>
-    <t>factor(udgrp)2</t>
-  </si>
-  <si>
-    <t>0.129357644356293</t>
-  </si>
-  <si>
-    <t>0.330136830202754</t>
-  </si>
-  <si>
-    <t>0.0442914803030039</t>
-  </si>
-  <si>
-    <t>0.762296246166967</t>
-  </si>
-  <si>
-    <t>0.132160485041474</t>
-  </si>
-  <si>
-    <t>0.266134002157299</t>
-  </si>
-  <si>
-    <t>0.0602686181042189</t>
-  </si>
-  <si>
-    <t>0.617221190802917</t>
-  </si>
-  <si>
-    <t>0.0506000116223493</t>
-  </si>
-  <si>
-    <t>0.697107778958055</t>
-  </si>
-  <si>
-    <t>factor(udgrp)3</t>
-  </si>
-  <si>
-    <t>0.183979969315845</t>
-  </si>
-  <si>
-    <t>0.247913917211627</t>
-  </si>
-  <si>
-    <t>0.160909748230548</t>
-  </si>
-  <si>
-    <t>0.34771527742576</t>
-  </si>
-  <si>
-    <t>0.243637568336678</t>
-  </si>
-  <si>
-    <t>0.0669265728962204</t>
-  </si>
-  <si>
-    <t>0.224105301517784</t>
-  </si>
-  <si>
-    <t>0.124169847755962</t>
-  </si>
-  <si>
-    <t>0.150400872177934</t>
-  </si>
-  <si>
-    <t>0.305273256726434</t>
-  </si>
-  <si>
-    <t>factor(aldergrp)2</t>
-  </si>
-  <si>
-    <t>0.423970431175703</t>
-  </si>
-  <si>
-    <t>0.000150961916392479</t>
-  </si>
-  <si>
-    <t>0.417765001896233</t>
-  </si>
-  <si>
-    <t>0.000137803749638179</t>
-  </si>
-  <si>
-    <t>0.24722331116572</t>
-  </si>
-  <si>
-    <t>0.0129122843047584</t>
-  </si>
-  <si>
-    <t>0.291952953155559</t>
-  </si>
-  <si>
-    <t>0.0104917444463373</t>
-  </si>
-  <si>
-    <t>0.317627278046957</t>
-  </si>
-  <si>
-    <t>0.00291519006011096</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>factor(aldergrp)3</t>
-  </si>
-  <si>
-    <t>0.67098825385779</t>
-  </si>
-  <si>
-    <t>0.000105983943662208</t>
-  </si>
-  <si>
-    <t>0.601642155319054</t>
-  </si>
-  <si>
-    <t>0.000363928674095556</t>
-  </si>
-  <si>
-    <t>0.471567034993626</t>
-  </si>
-  <si>
-    <t>0.00606043681554104</t>
-  </si>
-  <si>
-    <t>0.515993873909661</t>
-  </si>
-  <si>
-    <t>0.00288094658900276</t>
-  </si>
-  <si>
-    <t>0.508081374497417</t>
-  </si>
-  <si>
-    <t>0.00317186264802798</t>
-  </si>
-  <si>
-    <t>factor(loengrp)2</t>
-  </si>
-  <si>
-    <t>0.281598055672071</t>
-  </si>
-  <si>
-    <t>0.0847195175645633</t>
-  </si>
-  <si>
-    <t>0.191233161608658</t>
-  </si>
-  <si>
-    <t>0.211374223542809</t>
-  </si>
-  <si>
-    <t>0.237640814094115</t>
-  </si>
-  <si>
-    <t>0.127313807781794</t>
-  </si>
-  <si>
-    <t>0.244683493154482</t>
-  </si>
-  <si>
-    <t>0.121250052166783</t>
-  </si>
-  <si>
-    <t>0.132837128644403</t>
-  </si>
-  <si>
-    <t>0.429906096488795</t>
-  </si>
-  <si>
-    <t>factor(loengrp)3</t>
-  </si>
-  <si>
-    <t>0.456367963085853</t>
-  </si>
-  <si>
-    <t>0.0181613309006134</t>
-  </si>
-  <si>
-    <t>0.399533635461392</t>
-  </si>
-  <si>
-    <t>0.0282047940308554</t>
-  </si>
-  <si>
-    <t>0.412441986725408</t>
-  </si>
-  <si>
-    <t>0.01066011071337</t>
-  </si>
-  <si>
-    <t>0.347962251435761</t>
-  </si>
-  <si>
-    <t>0.0596729848345011</t>
-  </si>
-  <si>
-    <t>0.327224803272606</t>
-  </si>
-  <si>
-    <t>0.0930198072656656</t>
-  </si>
-  <si>
-    <t>factor(loengrp)4</t>
-  </si>
-  <si>
-    <t>0.364626178218911</t>
-  </si>
-  <si>
-    <t>0.0272681124035951</t>
-  </si>
-  <si>
-    <t>0.232642256784475</t>
-  </si>
-  <si>
-    <t>0.164247356723826</t>
-  </si>
-  <si>
-    <t>0.373191978363287</t>
-  </si>
-  <si>
-    <t>0.00831080343960873</t>
-  </si>
-  <si>
-    <t>0.300148503686346</t>
-  </si>
-  <si>
-    <t>0.059093672700607</t>
-  </si>
-  <si>
-    <t>0.267669444656566</t>
-  </si>
-  <si>
-    <t>0.105883655077319</t>
-  </si>
-  <si>
-    <t>Leveremodtageoutput</t>
-  </si>
-  <si>
-    <t>0.0989949144194278</t>
-  </si>
-  <si>
-    <t>0.655378896485697</t>
-  </si>
-  <si>
-    <t>0.06552124356416</t>
-  </si>
-  <si>
-    <t>0.775636456684173</t>
-  </si>
-  <si>
-    <t>0.281810003377194</t>
-  </si>
-  <si>
-    <t>0.0815835430904539</t>
-  </si>
-  <si>
-    <t>0.314336633143252</t>
-  </si>
-  <si>
-    <t>0.151333942109401</t>
-  </si>
-  <si>
-    <t>0.391423033499488</t>
-  </si>
-  <si>
-    <t>0.0702111524760288</t>
-  </si>
-  <si>
-    <t>Startovervågestopperobottter</t>
-  </si>
-  <si>
-    <t>-0.144473569446404</t>
-  </si>
-  <si>
-    <t>0.573808996335771</t>
-  </si>
-  <si>
-    <t>-0.133582812131531</t>
-  </si>
-  <si>
-    <t>0.621954847176735</t>
-  </si>
-  <si>
-    <t>-0.314990560020669</t>
-  </si>
-  <si>
-    <t>0.114801759154931</t>
-  </si>
-  <si>
-    <t>-0.22792543375315</t>
-  </si>
-  <si>
-    <t>0.340186272078152</t>
-  </si>
-  <si>
-    <t>-0.162866814544244</t>
-  </si>
-  <si>
-    <t>0.47692533712417</t>
-  </si>
-  <si>
-    <t>Advancerettek1</t>
-  </si>
-  <si>
-    <t>-0.297249702667</t>
-  </si>
-  <si>
-    <t>0.0096025032071166</t>
-  </si>
-  <si>
-    <t>-0.348825162186441</t>
-  </si>
-  <si>
-    <t>0.0126697493304886</t>
-  </si>
-  <si>
-    <t>-0.0417536229203494</t>
-  </si>
-  <si>
-    <t>0.644429226381226</t>
-  </si>
-  <si>
-    <t>-0.240238784887603</t>
-  </si>
-  <si>
-    <t>0.042367590393378</t>
-  </si>
-  <si>
-    <t>-0.150851417585616</t>
-  </si>
-  <si>
-    <t>0.197262625539571</t>
-  </si>
-  <si>
-    <t>Advancerettek2</t>
-  </si>
-  <si>
-    <t>0.396288306111627</t>
-  </si>
-  <si>
-    <t>0.00629175945636551</t>
-  </si>
-  <si>
-    <t>0.310216242050626</t>
-  </si>
-  <si>
-    <t>0.0566991206604554</t>
-  </si>
-  <si>
-    <t>-0.0240529783694846</t>
-  </si>
-  <si>
-    <t>0.840813839110756</t>
-  </si>
-  <si>
-    <t>-0.0115861925776378</t>
-  </si>
-  <si>
-    <t>0.942641649491348</t>
-  </si>
-  <si>
-    <t>0.148443780082125</t>
-  </si>
-  <si>
-    <t>0.328677606054408</t>
-  </si>
-  <si>
-    <t>Advancerettek3</t>
-  </si>
-  <si>
-    <t>-0.391192150576877</t>
-  </si>
-  <si>
-    <t>0.00384268928554911</t>
-  </si>
-  <si>
-    <t>-0.163644983471373</t>
-  </si>
-  <si>
-    <t>0.286956465853415</t>
-  </si>
-  <si>
-    <t>-0.369792956817775</t>
-  </si>
-  <si>
-    <t>0.00252597452137462</t>
-  </si>
-  <si>
-    <t>-0.326821345149169</t>
-  </si>
-  <si>
-    <t>0.0311474475849988</t>
-  </si>
-  <si>
-    <t>-0.479805927115732</t>
-  </si>
-  <si>
-    <t>0.0017320640035699</t>
+    <t xml:space="preserve">0.22578268133094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.278542579148772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169200894298544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381246037711668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162647210292317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.426008142686524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107749256969949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596111624466451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(bra10grp_code)4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133528006599575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28267434152179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180360264049997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144050627995355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0154105182010544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886722370392206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0762474523198863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.546444314593936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0982284012849439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377632443888321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(bra10grp_code)5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375040668997675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0253555572148516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.295148946983746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104681232761171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148789946949848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300046334565203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.206814429305422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257401691459126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380975587972693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0235430492927727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(bra10grp_code)6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00623238380346419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970135399456077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113349816512245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480806554105416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.165947669389493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.282483146511303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128337422742773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448114316658155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0338211050395404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827536404650078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(bra10grp_code)7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.443008110865561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335843372314757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.847866903807099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0581648529903876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.660507376290556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0580704305391487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.389747718411906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3575536121771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0505003659282222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875128247015161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(bra10grp_code)8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0775855552785682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.591836702901456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0497424035309968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.735638730011061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0193746816242611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879447875821014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0323553148538098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.838395226337509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0858901999083302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513463187196791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(udgrp)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357644356293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330136830202754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0442914803030039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.762296246166967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132160485041474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.266134002157299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0602686181042189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.617221190802917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0506000116223493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.697107778958055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(udgrp)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183979969315845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247913917211627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160909748230548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34771527742576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243637568336678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0669265728962204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.224105301517784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124169847755962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150400872177934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.305273256726434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(aldergrp)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.423970431175703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000150961916392479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.417765001896233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000137803749638179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24722331116572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0129122843047584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.291952953155559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0104917444463373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317627278046957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00291519006011096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(aldergrp)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67098825385779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000105983943662208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.601642155319054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000363928674095556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.471567034993626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00606043681554104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.515993873909661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00288094658900276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508081374497417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00317186264802798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(loengrp)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.281598055672071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0847195175645633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191233161608658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.211374223542809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237640814094115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127313807781794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244683493154482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121250052166783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132837128644403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.429906096488795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(loengrp)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456367963085853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0181613309006134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.399533635461392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0282047940308554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.412441986725408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01066011071337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347962251435761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0596729848345011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327224803272606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0930198072656656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor(loengrp)4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364626178218911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0272681124035951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232642256784475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164247356723826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373191978363287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00831080343960873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300148503686346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.059093672700607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.267669444656566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105883655077319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leveremodtageoutput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0989949144194278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.655378896485697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06552124356416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.775636456684173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.281810003377194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0815835430904539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314336633143252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151333942109401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391423033499488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0702111524760288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startovervågestopperobottter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.144473569446404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573808996335771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.133582812131531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.621954847176735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.314990560020669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114801759154931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22792543375315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340186272078152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.162866814544244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47692533712417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advancerettek1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.297249702667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0096025032071166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.348825162186441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0126697493304886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0417536229203494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.644429226381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.240238784887603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.042367590393378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.150851417585616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197262625539571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advancerettek2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396288306111627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00629175945636551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.310216242050626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0566991206604554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0240529783694846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840813839110756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0115861925776378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942641649491348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148443780082125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328677606054408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advancerettek3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.391192150576877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00384268928554911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.163644983471373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.286956465853415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.369792956817775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00252597452137462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.326821345149169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0311474475849988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.479805927115732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0017320640035699</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -752,15 +745,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1042,19 +1026,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P20"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1154,7 +1133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1254,7 +1233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1304,7 +1283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1354,7 +1333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1404,7 +1383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -1454,7 +1433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -1504,7 +1483,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -1554,7 +1533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -1604,7 +1583,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -1654,7 +1633,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -1704,7 +1683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -1754,7 +1733,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -1804,7 +1783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -1854,7 +1833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>186</v>
       </c>
@@ -1904,7 +1883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>197</v>
       </c>
@@ -1954,7 +1933,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -2004,7 +1983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>219</v>
       </c>
@@ -2056,6 +2035,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>